--- a/NformTester/NformTester/Keywordscripts/700.30.40_AlarmHistorywithUserDefinedSeparatorinExportedFile.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.40_AlarmHistorywithUserDefinedSeparatorinExportedFile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,12 +1255,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7761" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7766" uniqueCount="892">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3932,10 +3932,6 @@
     <t>Incident</t>
   </si>
   <si>
-    <t>;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3976,6 +3972,14 @@
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4254,10 +4258,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4280,7 +4284,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4564,10 +4568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4724,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4748,7 +4752,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4766,7 +4770,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -4909,7 +4913,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5019,7 +5023,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>800</v>
@@ -5050,7 +5054,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>800</v>
@@ -5093,10 +5097,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="J18" s="3" t="b">
         <v>0</v>
@@ -5250,10 +5254,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="J23" s="3" t="b">
         <v>1</v>
@@ -5264,7 +5268,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" s="16" customFormat="1">
       <c r="C24" s="3">
         <v>23</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -5290,9 +5294,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:15" s="16" customFormat="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+    <row r="25" spans="1:15">
       <c r="C25" s="3">
         <v>24</v>
       </c>
@@ -5303,13 +5305,13 @@
         <v>736</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>737</v>
+        <v>398</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -5317,9 +5319,10 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" s="16" customFormat="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3">
         <v>25</v>
       </c>
@@ -5330,34 +5333,39 @@
         <v>736</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>17</v>
+        <v>737</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>887</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="14"/>
+      <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" s="16" customFormat="1">
       <c r="C27" s="3">
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5365,31 +5373,23 @@
       <c r="M27" s="3"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:15" s="16" customFormat="1">
+    <row r="28" spans="1:15">
       <c r="C28" s="3">
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>830</v>
+        <v>865</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>881</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -5406,40 +5406,44 @@
         <v>746</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>17</v>
+        <v>762</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>880</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" s="16" customFormat="1">
       <c r="C30" s="3">
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>879</v>
+        <v>830</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="J30" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -5450,7 +5454,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>800</v>
@@ -5458,7 +5462,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>851</v>
@@ -5476,7 +5480,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>832</v>
+        <v>891</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>800</v>
@@ -5484,13 +5488,13 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>887</v>
+        <v>852</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="J32" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -5510,10 +5514,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="J33" s="3" t="b">
         <v>1</v>
@@ -5536,10 +5540,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="J34" s="3" t="b">
         <v>1</v>
@@ -5562,10 +5566,10 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J35" s="3" t="b">
         <v>1</v>
@@ -5574,7 +5578,6 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="16"/>
     </row>
     <row r="36" spans="3:15">
       <c r="C36" s="3">
@@ -5589,10 +5592,10 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="J36" s="3" t="b">
         <v>1</v>
@@ -5603,7 +5606,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="3:15" s="16" customFormat="1">
+    <row r="37" spans="3:15">
       <c r="C37" s="3">
         <v>36</v>
       </c>
@@ -5616,10 +5619,10 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="J37" s="3" t="b">
         <v>1</v>
@@ -5628,6 +5631,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="14"/>
+      <c r="O37" s="16"/>
     </row>
     <row r="38" spans="3:15" s="16" customFormat="1">
       <c r="C38" s="3">
@@ -5642,10 +5646,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>1</v>
@@ -5668,10 +5672,10 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>1</v>
@@ -5694,10 +5698,10 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J40" s="3" t="b">
         <v>1</v>
@@ -5720,10 +5724,10 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J41" s="3" t="b">
         <v>1</v>
@@ -5746,10 +5750,10 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J42" s="3" t="b">
         <v>1</v>
@@ -5772,10 +5776,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J43" s="3" t="b">
         <v>1</v>
@@ -5785,7 +5789,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="14"/>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" s="16" customFormat="1">
       <c r="C44" s="3">
         <v>43</v>
       </c>
@@ -5798,10 +5802,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J44" s="3" t="b">
         <v>1</v>
@@ -5811,7 +5815,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="3:15" s="16" customFormat="1">
+    <row r="45" spans="3:15">
       <c r="C45" s="3">
         <v>44</v>
       </c>
@@ -5824,10 +5828,10 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J45" s="3" t="b">
         <v>1</v>
@@ -5850,10 +5854,10 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="J46" s="3" t="b">
         <v>1</v>
@@ -5863,7 +5867,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="3:15">
+    <row r="47" spans="3:15" s="16" customFormat="1">
       <c r="C47" s="3">
         <v>46</v>
       </c>
@@ -5876,10 +5880,10 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="J47" s="3" t="b">
         <v>1</v>
@@ -5889,42 +5893,44 @@
       <c r="M47" s="3"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="3:15" ht="15">
+    <row r="48" spans="3:15">
       <c r="C48" s="3">
         <v>47</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="E48" s="3"/>
+      <c r="D48" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J48" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="3:14">
+    <row r="49" spans="3:14" ht="15">
       <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="D49" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -5936,13 +5942,13 @@
         <v>49</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>2</v>
@@ -5963,25 +5969,23 @@
         <v>854</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>855</v>
+        <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="I51" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="14"/>
     </row>
-    <row r="52" spans="3:14" ht="14.25">
+    <row r="52" spans="3:14">
       <c r="C52" s="3">
         <v>51</v>
       </c>
@@ -5992,12 +5996,14 @@
         <v>855</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>213</v>
+        <v>621</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -6005,23 +6011,23 @@
       <c r="M52" s="3"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="3:14">
+    <row r="53" spans="3:14" ht="14.25">
       <c r="C53" s="3">
         <v>52</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>628</v>
+      <c r="E53" s="21" t="s">
+        <v>855</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -6036,26 +6042,50 @@
       <c r="D54" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="E54" s="21" t="s">
-        <v>855</v>
+      <c r="E54" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
+      <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="14"/>
     </row>
+    <row r="55" spans="3:14">
+      <c r="C55" s="3">
+        <v>54</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N54">
+  <conditionalFormatting sqref="N2:N55">
     <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6064,16 +6094,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 G52:G54 G2:G50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 G53:G55 G2:G51">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49 D13:D47 D3:D4 D10:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50 D10:D11 D3:D4 D13:D48">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F55">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E55">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/700.30.40_AlarmHistorywithUserDefinedSeparatorinExportedFile.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.40_AlarmHistorywithUserDefinedSeparatorinExportedFile.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7766" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7772" uniqueCount="893">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3981,6 +3981,10 @@
   <si>
     <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4175,7 +4179,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4189,8 +4193,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4256,11 +4263,16 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 2 2 2" xfId="4"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4568,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4665,25 +4677,19 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
+      <c r="D3" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>892</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>844</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4700,24 +4706,30 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4727,11 +4739,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4752,7 +4768,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4770,13 +4786,13 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4790,7 +4806,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
         <v>846</v>
       </c>
@@ -4798,32 +4814,22 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>626</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>849</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="24"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>828</v>
       </c>
@@ -4831,22 +4837,32 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>861</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="D9" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="2" t="s">
         <v>804</v>
       </c>
@@ -4856,23 +4872,15 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="I10" s="21">
-        <v>5</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>864</v>
-      </c>
+      <c r="D10" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -4885,26 +4893,30 @@
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
-      </c>
+      <c r="D11" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="14"/>
+      <c r="H11" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I11" s="21">
+        <v>5</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>806</v>
       </c>
@@ -4912,14 +4924,18 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -4927,7 +4943,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="22" t="s">
         <v>807</v>
       </c>
@@ -4935,18 +4951,12 @@
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D13" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4971,7 +4981,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2</v>
@@ -5000,7 +5010,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2</v>
@@ -5023,22 +5033,20 @@
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="J16" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -5062,7 +5070,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>851</v>
@@ -5085,22 +5093,18 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>888</v>
+        <v>852</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>889</v>
+        <v>851</v>
       </c>
       <c r="J18" s="3" t="b">
         <v>0</v>
@@ -5126,19 +5130,19 @@
         <v>736</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>741</v>
+        <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>860</v>
+        <v>888</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>858</v>
+        <v>889</v>
       </c>
       <c r="J19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -5163,14 +5167,20 @@
         <v>736</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="J20" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -5192,7 +5202,7 @@
         <v>736</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>2</v>
@@ -5221,7 +5231,7 @@
         <v>736</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>417</v>
+        <v>741</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -5248,20 +5258,14 @@
         <v>736</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>17</v>
+        <v>417</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="J23" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -5279,16 +5283,20 @@
         <v>736</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+        <v>888</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="J24" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -5308,10 +5316,10 @@
         <v>398</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -5333,13 +5341,13 @@
         <v>736</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>737</v>
+        <v>398</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -5360,12 +5368,14 @@
         <v>736</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>17</v>
+        <v>737</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>887</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5378,16 +5388,18 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5400,26 +5412,18 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>830</v>
+        <v>865</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>880</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -5436,14 +5440,20 @@
         <v>746</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>17</v>
+        <v>762</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>880</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -5454,22 +5464,20 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="J31" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -5480,7 +5488,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>891</v>
+        <v>862</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>800</v>
@@ -5488,7 +5496,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>851</v>
@@ -5506,7 +5514,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>832</v>
+        <v>891</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>800</v>
@@ -5514,13 +5522,13 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="J33" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -5543,7 +5551,7 @@
         <v>886</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="J34" s="3" t="b">
         <v>1</v>
@@ -5569,7 +5577,7 @@
         <v>886</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="J35" s="3" t="b">
         <v>1</v>
@@ -5595,7 +5603,7 @@
         <v>886</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J36" s="3" t="b">
         <v>1</v>
@@ -5622,7 +5630,7 @@
         <v>886</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="J37" s="3" t="b">
         <v>1</v>
@@ -5649,7 +5657,7 @@
         <v>886</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>1</v>
@@ -5675,7 +5683,7 @@
         <v>886</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>1</v>
@@ -5701,7 +5709,7 @@
         <v>886</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J40" s="3" t="b">
         <v>1</v>
@@ -5727,7 +5735,7 @@
         <v>886</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J41" s="3" t="b">
         <v>1</v>
@@ -5753,7 +5761,7 @@
         <v>886</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J42" s="3" t="b">
         <v>1</v>
@@ -5779,7 +5787,7 @@
         <v>886</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J43" s="3" t="b">
         <v>1</v>
@@ -5805,7 +5813,7 @@
         <v>886</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J44" s="3" t="b">
         <v>1</v>
@@ -5831,7 +5839,7 @@
         <v>886</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J45" s="3" t="b">
         <v>1</v>
@@ -5857,7 +5865,7 @@
         <v>886</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J46" s="3" t="b">
         <v>1</v>
@@ -5883,7 +5891,7 @@
         <v>886</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="J47" s="3" t="b">
         <v>1</v>
@@ -5909,7 +5917,7 @@
         <v>886</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="J48" s="3" t="b">
         <v>1</v>
@@ -5919,42 +5927,44 @@
       <c r="M48" s="3"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="3:14" ht="15">
+    <row r="49" spans="3:14">
       <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="E49" s="3"/>
+      <c r="D49" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J49" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:14" ht="15">
       <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="D50" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -5966,13 +5976,13 @@
         <v>50</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>2</v>
@@ -5993,25 +6003,23 @@
         <v>854</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>855</v>
+        <v>19</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="I52" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="3:14" ht="14.25">
+    <row r="53" spans="3:14">
       <c r="C53" s="3">
         <v>52</v>
       </c>
@@ -6022,12 +6030,14 @@
         <v>855</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>213</v>
+        <v>621</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -6035,23 +6045,23 @@
       <c r="M53" s="3"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="3:14">
+    <row r="54" spans="3:14" ht="14.25">
       <c r="C54" s="3">
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>628</v>
+      <c r="E54" s="21" t="s">
+        <v>855</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="21"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -6066,26 +6076,64 @@
       <c r="D55" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="E55" s="21" t="s">
-        <v>855</v>
+      <c r="E55" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="14"/>
     </row>
+    <row r="56" spans="3:14">
+      <c r="C56" s="3">
+        <v>55</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="14"/>
+    </row>
+    <row r="57" spans="3:14">
+      <c r="C57" s="3">
+        <v>56</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N55">
+  <conditionalFormatting sqref="N2:N56">
     <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6094,16 +6142,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 G53:G55 G2:G51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 G54:G56 G2:G52">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50 D10:D11 D3:D4 D13:D48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51 D11:D12 D3:D5 D14:D49 D57">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F56">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E57">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/700.30.40_AlarmHistorywithUserDefinedSeparatorinExportedFile.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.40_AlarmHistorywithUserDefinedSeparatorinExportedFile.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7772" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7775" uniqueCount="896">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3826,15 +3826,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MultiSearch</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart$</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchEnd$</t>
-  </si>
-  <si>
     <t>C:\Nform\log\Server.log</t>
   </si>
   <si>
@@ -3880,10 +3871,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3985,13 +3972,37 @@
   <si>
     <t>DeleteLocalFile</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4058,6 +4069,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4098,6 +4110,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4256,9 +4276,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4267,6 +4284,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4275,7 +4295,35 @@
     <cellStyle name="常规 2 2 2" xfId="4"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4582,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4595,6 +4643,7 @@
     <col min="7" max="7" width="31.375" customWidth="1"/>
     <col min="8" max="8" width="59.25" customWidth="1"/>
     <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="10" max="10" width="29.875" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
@@ -4672,21 +4721,21 @@
         <v>822</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>832</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>892</v>
+      <c r="E3" s="27" t="s">
+        <v>888</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="G3" s="28"/>
+        <v>882</v>
+      </c>
+      <c r="G3" s="27"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -4768,7 +4817,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4792,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4847,19 +4896,25 @@
         <v>626</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="24"/>
+      <c r="H9" s="27" t="s">
+        <v>890</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>893</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="N9" s="28"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15">
@@ -4873,7 +4928,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -4894,7 +4949,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>802</v>
@@ -4902,13 +4957,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="I11" s="21">
         <v>5</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -4952,7 +5007,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5062,7 +5117,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>800</v>
@@ -5070,10 +5125,10 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="J17" s="3" t="b">
         <v>0</v>
@@ -5093,7 +5148,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>800</v>
@@ -5101,10 +5156,10 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="J18" s="3" t="b">
         <v>0</v>
@@ -5136,10 +5191,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="J19" s="3" t="b">
         <v>0</v>
@@ -5173,10 +5228,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J20" s="3" t="b">
         <v>1</v>
@@ -5246,8 +5301,8 @@
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:15" s="16" customFormat="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="3">
         <v>22</v>
       </c>
@@ -5289,10 +5344,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="J24" s="3" t="b">
         <v>1</v>
@@ -5319,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -5347,7 +5402,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -5374,7 +5429,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -5412,10 +5467,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F29" s="3">
         <v>5</v>
@@ -5446,13 +5501,13 @@
         <v>7</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -5488,7 +5543,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>800</v>
@@ -5496,10 +5551,10 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="J32" s="3" t="b">
         <v>0</v>
@@ -5514,7 +5569,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>800</v>
@@ -5522,10 +5577,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="J33" s="3" t="b">
         <v>0</v>
@@ -5548,10 +5603,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="J34" s="3" t="b">
         <v>1</v>
@@ -5574,10 +5629,10 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="J35" s="3" t="b">
         <v>1</v>
@@ -5600,10 +5655,10 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="J36" s="3" t="b">
         <v>1</v>
@@ -5627,10 +5682,10 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="J37" s="3" t="b">
         <v>1</v>
@@ -5654,10 +5709,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>1</v>
@@ -5680,10 +5735,10 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>1</v>
@@ -5706,10 +5761,10 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="J40" s="3" t="b">
         <v>1</v>
@@ -5732,10 +5787,10 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="J41" s="3" t="b">
         <v>1</v>
@@ -5758,10 +5813,10 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="J42" s="3" t="b">
         <v>1</v>
@@ -5784,10 +5839,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="J43" s="3" t="b">
         <v>1</v>
@@ -5810,10 +5865,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="J44" s="3" t="b">
         <v>1</v>
@@ -5836,10 +5891,10 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J45" s="3" t="b">
         <v>1</v>
@@ -5862,10 +5917,10 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J46" s="3" t="b">
         <v>1</v>
@@ -5888,10 +5943,10 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="J47" s="3" t="b">
         <v>1</v>
@@ -5914,10 +5969,10 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="J48" s="3" t="b">
         <v>1</v>
@@ -5940,10 +5995,10 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J49" s="3" t="b">
         <v>1</v>
@@ -5958,7 +6013,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -6000,7 +6055,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>19</v>
@@ -6024,10 +6079,10 @@
         <v>52</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>621</v>
@@ -6050,10 +6105,10 @@
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>213</v>
@@ -6074,7 +6129,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>628</v>
@@ -6098,10 +6153,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>100</v>
@@ -6121,23 +6176,39 @@
       <c r="C57" s="3">
         <v>56</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>832</v>
       </c>
-      <c r="E57" s="28" t="s">
-        <v>892</v>
+      <c r="E57" s="27" t="s">
+        <v>888</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="N2:N56">
-    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
